--- a/03-製造/チーム2/【勤怠】テーブル定義書.xlsx
+++ b/03-製造/チーム2/【勤怠】テーブル定義書.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF469220-4D74-4321-B03A-B35CBDB1E202}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC98B541-9234-4E8C-97E1-4C92592C18F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="761" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-16095" yWindow="-8010" windowWidth="15285" windowHeight="9870" tabRatio="761" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="8" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="130">
   <si>
     <t>システム名</t>
   </si>
@@ -116,9 +116,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>パスワード</t>
-  </si>
-  <si>
     <t>所属部門ID</t>
     <rPh sb="0" eb="2">
       <t>ショゾク</t>
@@ -129,12 +126,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>EMPLOYEE_NAME</t>
-  </si>
-  <si>
-    <t>PASSWORD</t>
-  </si>
-  <si>
     <t>DEPT_ID</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -293,9 +284,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>REMARKS</t>
-  </si>
-  <si>
     <t>T_ATTENDANCE</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -509,9 +497,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>WEEKDAY</t>
-  </si>
-  <si>
     <t>曜日</t>
     <rPh sb="0" eb="2">
       <t>ヨウビ</t>
@@ -579,55 +564,130 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
+    <t>INT／NUMBER</t>
+  </si>
+  <si>
+    <t>VARCHAR</t>
+  </si>
+  <si>
+    <t>EMPLOYEE_NAME</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>PASSWORD</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>VARCHAR2</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>DEL_FLG</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>NUMBER</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>CREATE_USER</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>UPDATE_USER</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
     <t>GENDER</t>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>TELEPHONE_NUMBER</t>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>ENTRY_DATE</t>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>AGE</t>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>MAIL_ADD</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>REMARKS</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>パスワード</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>作成日時</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>作成者</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>更新日時</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>更新者</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>WEEKDAY</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>BUSINESS_DAY</t>
-  </si>
-  <si>
-    <t>INT／NUMBER</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>START_DAY</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ABSENCE_DAY</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ACTUAL_WORKING_HOURS</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>COMMENT</t>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>営業日数</t>
-  </si>
-  <si>
-    <t>START_DAY</t>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>出勤日数</t>
-  </si>
-  <si>
-    <t>ABSENCE_DAY</t>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>欠勤日数</t>
-  </si>
-  <si>
-    <t>ACTUAL_WORKING_HOURS</t>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>実働時間(H)</t>
-  </si>
-  <si>
-    <t>COMMENT</t>
-  </si>
-  <si>
-    <t>VARCHAR</t>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>コメント</t>
+    <phoneticPr fontId="3"/>
   </si>
 </sst>
 </file>
@@ -1120,7 +1180,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1254,12 +1314,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="ハイパーリンク" xfId="2" builtinId="8"/>
@@ -1672,7 +1733,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{221F086F-26AC-4114-B742-94502A035963}">
   <dimension ref="B3:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1684,16 +1745,16 @@
   <sheetData>
     <row r="3" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B3" s="52" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C3" s="51" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D3" s="51" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E3" s="51" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.2">
@@ -1701,10 +1762,10 @@
         <v>1</v>
       </c>
       <c r="C4" s="55" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D4" s="50" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E4" s="50"/>
     </row>
@@ -1713,10 +1774,10 @@
         <v>2</v>
       </c>
       <c r="C5" s="55" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D5" s="50" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E5" s="50"/>
     </row>
@@ -1725,10 +1786,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="55" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D6" s="50" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E6" s="50"/>
     </row>
@@ -1737,10 +1798,10 @@
         <v>4</v>
       </c>
       <c r="C7" s="55" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D7" s="50" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E7" s="50"/>
     </row>
@@ -1749,10 +1810,10 @@
         <v>5</v>
       </c>
       <c r="C8" s="55" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D8" s="50" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E8" s="50"/>
     </row>
@@ -1761,10 +1822,10 @@
         <v>6</v>
       </c>
       <c r="C9" s="55" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D9" s="50" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E9" s="50"/>
     </row>
@@ -1798,8 +1859,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O25"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -1841,7 +1902,7 @@
     </row>
     <row r="2" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="5"/>
@@ -1850,7 +1911,7 @@
       <c r="F2" s="21"/>
       <c r="G2" s="8"/>
       <c r="H2" s="41" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="I2" s="42">
         <v>43996</v>
@@ -1873,11 +1934,11 @@
     </row>
     <row r="4" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B4" s="8"/>
       <c r="C4" s="6" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -1904,7 +1965,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="31" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C6" s="31" t="s">
         <v>5</v>
@@ -1922,10 +1983,10 @@
         <v>9</v>
       </c>
       <c r="H6" s="38" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I6" s="36" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="J6" s="37"/>
     </row>
@@ -1934,10 +1995,10 @@
         <v>1</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>10</v>
+        <v>102</v>
       </c>
       <c r="D7" s="12">
         <v>10</v>
@@ -1955,7 +2016,7 @@
       </c>
       <c r="J7" s="14"/>
       <c r="O7" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -1963,7 +2024,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>26</v>
+        <v>100</v>
       </c>
       <c r="C8" s="15" t="s">
         <v>10</v>
@@ -1973,7 +2034,7 @@
       </c>
       <c r="E8" s="16"/>
       <c r="F8" s="24" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G8" s="17"/>
       <c r="H8" s="15"/>
@@ -1987,7 +2048,7 @@
         <v>3</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>27</v>
+        <v>101</v>
       </c>
       <c r="C9" s="15" t="s">
         <v>10</v>
@@ -2000,11 +2061,11 @@
       <c r="G9" s="17"/>
       <c r="H9" s="15"/>
       <c r="I9" s="15" t="s">
-        <v>24</v>
+        <v>113</v>
       </c>
       <c r="J9" s="17"/>
       <c r="O9" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -2012,10 +2073,10 @@
         <v>4</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>10</v>
+        <v>102</v>
       </c>
       <c r="D10" s="15">
         <v>10</v>
@@ -2025,7 +2086,7 @@
       <c r="G10" s="17"/>
       <c r="H10" s="15"/>
       <c r="I10" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J10" s="17"/>
     </row>
@@ -2034,10 +2095,10 @@
         <v>5</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>12</v>
+        <v>103</v>
+      </c>
+      <c r="C11" s="66" t="s">
+        <v>119</v>
       </c>
       <c r="D11" s="15">
         <v>1</v>
@@ -2051,7 +2112,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="15" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="J11" s="17"/>
     </row>
@@ -2060,7 +2121,7 @@
         <v>6</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C12" s="15" t="s">
         <v>14</v>
@@ -2071,7 +2132,7 @@
       <c r="G12" s="17"/>
       <c r="H12" s="15"/>
       <c r="I12" s="15" t="s">
-        <v>15</v>
+        <v>114</v>
       </c>
       <c r="J12" s="17"/>
     </row>
@@ -2080,7 +2141,7 @@
         <v>7</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>16</v>
+        <v>105</v>
       </c>
       <c r="C13" s="15" t="s">
         <v>10</v>
@@ -2093,7 +2154,7 @@
       <c r="G13" s="17"/>
       <c r="H13" s="15"/>
       <c r="I13" s="15" t="s">
-        <v>2</v>
+        <v>115</v>
       </c>
       <c r="J13" s="17"/>
     </row>
@@ -2102,7 +2163,7 @@
         <v>8</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C14" s="15" t="s">
         <v>14</v>
@@ -2113,7 +2174,7 @@
       <c r="G14" s="17"/>
       <c r="H14" s="15"/>
       <c r="I14" s="15" t="s">
-        <v>17</v>
+        <v>116</v>
       </c>
       <c r="J14" s="17"/>
     </row>
@@ -2122,7 +2183,7 @@
         <v>9</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>18</v>
+        <v>106</v>
       </c>
       <c r="C15" s="15" t="s">
         <v>10</v>
@@ -2135,7 +2196,7 @@
       <c r="G15" s="17"/>
       <c r="H15" s="15"/>
       <c r="I15" s="15" t="s">
-        <v>19</v>
+        <v>117</v>
       </c>
       <c r="J15" s="17"/>
     </row>
@@ -2144,10 +2205,10 @@
         <v>10</v>
       </c>
       <c r="B16" s="61" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D16" s="15">
         <v>3</v>
@@ -2157,7 +2218,7 @@
       <c r="G16" s="17"/>
       <c r="H16" s="15"/>
       <c r="I16" s="15" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="J16" s="17"/>
     </row>
@@ -2166,10 +2227,10 @@
         <v>11</v>
       </c>
       <c r="B17" s="60" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D17" s="15">
         <v>13</v>
@@ -2179,7 +2240,7 @@
       <c r="G17" s="17"/>
       <c r="H17" s="15"/>
       <c r="I17" s="15" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="J17" s="17"/>
     </row>
@@ -2188,10 +2249,10 @@
         <v>12</v>
       </c>
       <c r="B18" s="62" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D18" s="15">
         <v>10</v>
@@ -2201,7 +2262,7 @@
       <c r="G18" s="17"/>
       <c r="H18" s="15"/>
       <c r="I18" s="15" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="J18" s="17"/>
     </row>
@@ -2210,10 +2271,10 @@
         <v>13</v>
       </c>
       <c r="B19" s="60" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D19" s="15">
         <v>3</v>
@@ -2223,7 +2284,7 @@
       <c r="G19" s="17"/>
       <c r="H19" s="15"/>
       <c r="I19" s="15" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="J19" s="17"/>
     </row>
@@ -2232,10 +2293,10 @@
         <v>14</v>
       </c>
       <c r="B20" s="61" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D20" s="15">
         <v>20</v>
@@ -2245,7 +2306,7 @@
       <c r="G20" s="17"/>
       <c r="H20" s="15"/>
       <c r="I20" s="15" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="J20" s="17"/>
     </row>
@@ -2254,10 +2315,10 @@
         <v>15</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="C21" s="15" t="s">
-        <v>12</v>
+        <v>96</v>
+      </c>
+      <c r="C21" s="66" t="s">
+        <v>119</v>
       </c>
       <c r="D21" s="15">
         <v>1</v>
@@ -2267,7 +2328,7 @@
       <c r="G21" s="17"/>
       <c r="H21" s="15"/>
       <c r="I21" s="15" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="J21" s="17"/>
     </row>
@@ -2334,8 +2395,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2EE93C6-8427-49C5-BF42-CDDECB2528F1}">
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -2377,7 +2438,7 @@
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="5"/>
@@ -2386,7 +2447,7 @@
       <c r="F2" s="21"/>
       <c r="G2" s="8"/>
       <c r="H2" s="41" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="I2" s="42">
         <v>43996</v>
@@ -2409,11 +2470,11 @@
     </row>
     <row r="4" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B4" s="8"/>
       <c r="C4" s="6" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -2440,7 +2501,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="31" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C6" s="31" t="s">
         <v>5</v>
@@ -2458,10 +2519,10 @@
         <v>9</v>
       </c>
       <c r="H6" s="38" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I6" s="36" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="J6" s="37"/>
     </row>
@@ -2470,7 +2531,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C7" s="12" t="s">
         <v>10</v>
@@ -2487,7 +2548,7 @@
       </c>
       <c r="H7" s="12"/>
       <c r="I7" s="12" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="J7" s="14"/>
     </row>
@@ -2496,7 +2557,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C8" s="15" t="s">
         <v>10</v>
@@ -2506,15 +2567,15 @@
       </c>
       <c r="E8" s="16"/>
       <c r="F8" s="24" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G8" s="17"/>
       <c r="H8" s="15"/>
       <c r="I8" s="15" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J8" s="17" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -2522,7 +2583,7 @@
         <v>3</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C9" s="15" t="s">
         <v>10</v>
@@ -2532,15 +2593,15 @@
       </c>
       <c r="E9" s="16"/>
       <c r="F9" s="24" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G9" s="17"/>
       <c r="H9" s="15"/>
       <c r="I9" s="15" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J9" s="17" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -2548,7 +2609,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C10" s="15" t="s">
         <v>12</v>
@@ -2563,7 +2624,7 @@
       <c r="G10" s="17"/>
       <c r="H10" s="15"/>
       <c r="I10" s="15" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J10" s="17"/>
     </row>
@@ -2572,7 +2633,7 @@
         <v>5</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C11" s="15" t="s">
         <v>12</v>
@@ -2587,7 +2648,7 @@
       <c r="G11" s="17"/>
       <c r="H11" s="15"/>
       <c r="I11" s="15" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="J11" s="17"/>
     </row>
@@ -2596,7 +2657,7 @@
         <v>6</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C12" s="15" t="s">
         <v>12</v>
@@ -2611,7 +2672,7 @@
       <c r="G12" s="17"/>
       <c r="H12" s="15"/>
       <c r="I12" s="15" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J12" s="17"/>
     </row>
@@ -2620,7 +2681,7 @@
         <v>7</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C13" s="15" t="s">
         <v>12</v>
@@ -2635,7 +2696,7 @@
       <c r="G13" s="17"/>
       <c r="H13" s="15"/>
       <c r="I13" s="15" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="J13" s="17"/>
     </row>
@@ -2644,7 +2705,7 @@
         <v>8</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C14" s="15" t="s">
         <v>10</v>
@@ -2657,7 +2718,7 @@
       <c r="G14" s="17"/>
       <c r="H14" s="15"/>
       <c r="I14" s="15" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="J14" s="17"/>
     </row>
@@ -2666,7 +2727,7 @@
         <v>9</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>51</v>
+        <v>112</v>
       </c>
       <c r="C15" s="15" t="s">
         <v>10</v>
@@ -2679,7 +2740,7 @@
       <c r="G15" s="17"/>
       <c r="H15" s="15"/>
       <c r="I15" s="15" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="J15" s="17"/>
     </row>
@@ -2688,7 +2749,7 @@
         <v>10</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C16" s="15" t="s">
         <v>14</v>
@@ -2730,7 +2791,7 @@
         <v>12</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C18" s="15" t="s">
         <v>14</v>
@@ -2855,7 +2916,7 @@
   <dimension ref="A1:O20"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -2899,7 +2960,7 @@
     </row>
     <row r="2" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="5"/>
@@ -2908,7 +2969,7 @@
       <c r="F2" s="21"/>
       <c r="G2" s="8"/>
       <c r="H2" s="41" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="I2" s="42">
         <v>43996</v>
@@ -2931,11 +2992,11 @@
     </row>
     <row r="4" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B4" s="8"/>
       <c r="C4" s="6" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -2962,7 +3023,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="31" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C6" s="31" t="s">
         <v>5</v>
@@ -2980,10 +3041,10 @@
         <v>9</v>
       </c>
       <c r="H6" s="38" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I6" s="36" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="J6" s="37"/>
       <c r="L6" s="57"/>
@@ -2994,7 +3055,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C7" s="59" t="s">
         <v>10</v>
@@ -3011,10 +3072,10 @@
       </c>
       <c r="H7" s="12"/>
       <c r="I7" s="12" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="J7" s="14" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.15">
@@ -3022,7 +3083,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="44" t="s">
-        <v>89</v>
+        <v>118</v>
       </c>
       <c r="C8" s="49" t="s">
         <v>10</v>
@@ -3035,7 +3096,7 @@
       <c r="G8" s="47"/>
       <c r="H8" s="44"/>
       <c r="I8" s="44" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="J8" s="47"/>
     </row>
@@ -3044,13 +3105,13 @@
         <v>3</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C9" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="15">
-        <v>1</v>
+      <c r="D9" s="67">
+        <v>3</v>
       </c>
       <c r="E9" s="16">
         <v>0</v>
@@ -3061,7 +3122,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="15" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="J9" s="17"/>
     </row>
@@ -3070,10 +3131,10 @@
         <v>4</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>12</v>
+        <v>103</v>
+      </c>
+      <c r="C10" s="66" t="s">
+        <v>119</v>
       </c>
       <c r="D10" s="15">
         <v>1</v>
@@ -3087,7 +3148,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="15" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="J10" s="17"/>
     </row>
@@ -3096,7 +3157,7 @@
         <v>5</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C11" s="15" t="s">
         <v>14</v>
@@ -3138,7 +3199,7 @@
         <v>7</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C13" s="15" t="s">
         <v>14</v>
@@ -3264,7 +3325,7 @@
   <dimension ref="A1:O19"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -3306,7 +3367,7 @@
     </row>
     <row r="2" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="5"/>
@@ -3315,7 +3376,7 @@
       <c r="F2" s="21"/>
       <c r="G2" s="8"/>
       <c r="H2" s="41" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="I2" s="42">
         <v>43996</v>
@@ -3338,11 +3399,11 @@
     </row>
     <row r="4" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B4" s="8"/>
       <c r="C4" s="6" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -3369,7 +3430,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="31" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C6" s="31" t="s">
         <v>5</v>
@@ -3387,10 +3448,10 @@
         <v>9</v>
       </c>
       <c r="H6" s="38" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I6" s="36" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="J6" s="37"/>
     </row>
@@ -3399,7 +3460,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C7" s="12" t="s">
         <v>10</v>
@@ -3416,11 +3477,11 @@
       </c>
       <c r="H7" s="12"/>
       <c r="I7" s="12" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J7" s="14"/>
       <c r="O7" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -3428,7 +3489,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C8" s="48" t="s">
         <v>10</v>
@@ -3441,7 +3502,7 @@
       <c r="G8" s="47"/>
       <c r="H8" s="15"/>
       <c r="I8" s="15" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="J8" s="17"/>
     </row>
@@ -3452,8 +3513,8 @@
       <c r="B9" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="49" t="s">
-        <v>12</v>
+      <c r="C9" s="66" t="s">
+        <v>119</v>
       </c>
       <c r="D9" s="15">
         <v>1</v>
@@ -3467,7 +3528,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="15" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="J9" s="17"/>
     </row>
@@ -3476,7 +3537,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C10" s="44" t="s">
         <v>14</v>
@@ -3518,7 +3579,7 @@
         <v>6</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C12" s="15" t="s">
         <v>14</v>
@@ -3643,7 +3704,7 @@
   <dimension ref="A1:O19"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -3685,7 +3746,7 @@
     </row>
     <row r="2" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="5"/>
@@ -3694,7 +3755,7 @@
       <c r="F2" s="21"/>
       <c r="G2" s="8"/>
       <c r="H2" s="41" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="I2" s="42">
         <v>43996</v>
@@ -3717,11 +3778,11 @@
     </row>
     <row r="4" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B4" s="8"/>
       <c r="C4" s="6" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -3748,7 +3809,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="31" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C6" s="31" t="s">
         <v>5</v>
@@ -3766,10 +3827,10 @@
         <v>9</v>
       </c>
       <c r="H6" s="38" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I6" s="36" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="J6" s="37"/>
     </row>
@@ -3778,7 +3839,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C7" s="12" t="s">
         <v>10</v>
@@ -3795,11 +3856,11 @@
       </c>
       <c r="H7" s="12"/>
       <c r="I7" s="12" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="J7" s="14"/>
       <c r="O7" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -3807,10 +3868,10 @@
         <v>2</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C8" s="49" t="s">
-        <v>12</v>
+        <v>104</v>
       </c>
       <c r="D8" s="15">
         <v>1</v>
@@ -3822,7 +3883,7 @@
       <c r="G8" s="47"/>
       <c r="H8" s="15"/>
       <c r="I8" s="15" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="J8" s="17"/>
     </row>
@@ -3833,8 +3894,8 @@
       <c r="B9" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="49" t="s">
-        <v>12</v>
+      <c r="C9" s="66" t="s">
+        <v>119</v>
       </c>
       <c r="D9" s="15">
         <v>1</v>
@@ -3848,7 +3909,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="15" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="J9" s="17"/>
     </row>
@@ -3857,7 +3918,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C10" s="44" t="s">
         <v>14</v>
@@ -3899,7 +3960,7 @@
         <v>6</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C12" s="15" t="s">
         <v>14</v>
@@ -3937,120 +3998,120 @@
       <c r="J13" s="17"/>
     </row>
     <row r="14" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="63">
+      <c r="A14" s="61">
         <v>8</v>
       </c>
-      <c r="B14" s="63" t="s">
-        <v>108</v>
-      </c>
-      <c r="C14" s="63" t="s">
-        <v>109</v>
-      </c>
-      <c r="D14" s="63">
+      <c r="B14" s="61" t="s">
+        <v>120</v>
+      </c>
+      <c r="C14" s="61" t="s">
+        <v>98</v>
+      </c>
+      <c r="D14" s="61">
         <v>4</v>
       </c>
-      <c r="E14" s="64">
+      <c r="E14" s="63">
         <v>0</v>
       </c>
-      <c r="F14" s="65"/>
-      <c r="G14" s="66"/>
-      <c r="H14" s="63"/>
-      <c r="I14" s="63" t="s">
-        <v>110</v>
+      <c r="F14" s="64"/>
+      <c r="G14" s="65"/>
+      <c r="H14" s="61"/>
+      <c r="I14" s="61" t="s">
+        <v>125</v>
       </c>
       <c r="J14" s="17"/>
     </row>
     <row r="15" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="63">
+      <c r="A15" s="61">
         <v>9</v>
       </c>
-      <c r="B15" s="63" t="s">
-        <v>111</v>
-      </c>
-      <c r="C15" s="63" t="s">
-        <v>109</v>
-      </c>
-      <c r="D15" s="63">
+      <c r="B15" s="61" t="s">
+        <v>121</v>
+      </c>
+      <c r="C15" s="61" t="s">
+        <v>98</v>
+      </c>
+      <c r="D15" s="61">
         <v>4</v>
       </c>
-      <c r="E15" s="64">
+      <c r="E15" s="63">
         <v>0</v>
       </c>
-      <c r="F15" s="65"/>
-      <c r="G15" s="66"/>
-      <c r="H15" s="63"/>
-      <c r="I15" s="63" t="s">
-        <v>112</v>
+      <c r="F15" s="64"/>
+      <c r="G15" s="65"/>
+      <c r="H15" s="61"/>
+      <c r="I15" s="61" t="s">
+        <v>126</v>
       </c>
       <c r="J15" s="17"/>
     </row>
     <row r="16" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="63">
-        <v>10</v>
-      </c>
-      <c r="B16" s="63" t="s">
-        <v>113</v>
-      </c>
-      <c r="C16" s="63" t="s">
-        <v>109</v>
-      </c>
-      <c r="D16" s="63">
+      <c r="A16" s="61">
+        <v>10</v>
+      </c>
+      <c r="B16" s="61" t="s">
+        <v>122</v>
+      </c>
+      <c r="C16" s="61" t="s">
+        <v>98</v>
+      </c>
+      <c r="D16" s="61">
         <v>4</v>
       </c>
-      <c r="E16" s="64">
+      <c r="E16" s="63">
         <v>0</v>
       </c>
-      <c r="F16" s="65"/>
-      <c r="G16" s="66"/>
-      <c r="H16" s="63"/>
-      <c r="I16" s="63" t="s">
-        <v>114</v>
+      <c r="F16" s="64"/>
+      <c r="G16" s="65"/>
+      <c r="H16" s="61"/>
+      <c r="I16" s="61" t="s">
+        <v>127</v>
       </c>
       <c r="J16" s="17"/>
     </row>
     <row r="17" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="63">
+      <c r="A17" s="61">
         <v>11</v>
       </c>
-      <c r="B17" s="63" t="s">
-        <v>115</v>
-      </c>
-      <c r="C17" s="63" t="s">
-        <v>109</v>
-      </c>
-      <c r="D17" s="63">
+      <c r="B17" s="61" t="s">
+        <v>123</v>
+      </c>
+      <c r="C17" s="61" t="s">
+        <v>98</v>
+      </c>
+      <c r="D17" s="61">
         <v>4</v>
       </c>
-      <c r="E17" s="64">
+      <c r="E17" s="63">
         <v>0</v>
       </c>
-      <c r="F17" s="65"/>
-      <c r="G17" s="66"/>
-      <c r="H17" s="63"/>
-      <c r="I17" s="63" t="s">
-        <v>116</v>
+      <c r="F17" s="64"/>
+      <c r="G17" s="65"/>
+      <c r="H17" s="61"/>
+      <c r="I17" s="61" t="s">
+        <v>128</v>
       </c>
       <c r="J17" s="17"/>
     </row>
     <row r="18" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="63">
+      <c r="A18" s="61">
         <v>12</v>
       </c>
-      <c r="B18" s="63" t="s">
-        <v>117</v>
-      </c>
-      <c r="C18" s="63" t="s">
-        <v>118</v>
-      </c>
-      <c r="D18" s="63">
+      <c r="B18" s="61" t="s">
+        <v>124</v>
+      </c>
+      <c r="C18" s="61" t="s">
+        <v>99</v>
+      </c>
+      <c r="D18" s="61">
         <v>30</v>
       </c>
-      <c r="E18" s="64"/>
-      <c r="F18" s="65"/>
-      <c r="G18" s="66"/>
-      <c r="H18" s="63"/>
-      <c r="I18" s="63" t="s">
-        <v>119</v>
+      <c r="E18" s="63"/>
+      <c r="F18" s="64"/>
+      <c r="G18" s="65"/>
+      <c r="H18" s="61"/>
+      <c r="I18" s="61" t="s">
+        <v>129</v>
       </c>
       <c r="J18" s="17"/>
     </row>
@@ -4082,7 +4143,7 @@
   <dimension ref="A1:O19"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I9" sqref="H9:I9"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -4124,7 +4185,7 @@
     </row>
     <row r="2" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="5"/>
@@ -4133,7 +4194,7 @@
       <c r="F2" s="21"/>
       <c r="G2" s="8"/>
       <c r="H2" s="41" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="I2" s="42">
         <v>43996</v>
@@ -4156,11 +4217,11 @@
     </row>
     <row r="4" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B4" s="8"/>
       <c r="C4" s="6" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -4187,7 +4248,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="31" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C6" s="31" t="s">
         <v>5</v>
@@ -4205,10 +4266,10 @@
         <v>9</v>
       </c>
       <c r="H6" s="38" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I6" s="36" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="J6" s="37"/>
     </row>
@@ -4217,7 +4278,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C7" s="12" t="s">
         <v>10</v>
@@ -4234,11 +4295,11 @@
       </c>
       <c r="H7" s="12"/>
       <c r="I7" s="12" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="J7" s="14"/>
       <c r="O7" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -4246,7 +4307,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C8" s="49" t="s">
         <v>10</v>
@@ -4259,7 +4320,7 @@
       <c r="G8" s="47"/>
       <c r="H8" s="15"/>
       <c r="I8" s="15" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="J8" s="17"/>
     </row>
@@ -4268,10 +4329,10 @@
         <v>3</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="49" t="s">
-        <v>12</v>
+        <v>103</v>
+      </c>
+      <c r="C9" s="66" t="s">
+        <v>119</v>
       </c>
       <c r="D9" s="15">
         <v>1</v>
@@ -4285,7 +4346,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="15" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="J9" s="17"/>
     </row>
@@ -4294,7 +4355,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C10" s="44" t="s">
         <v>14</v>
@@ -4336,7 +4397,7 @@
         <v>6</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C12" s="15" t="s">
         <v>14</v>

--- a/03-製造/チーム2/【勤怠】テーブル定義書.xlsx
+++ b/03-製造/チーム2/【勤怠】テーブル定義書.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC98B541-9234-4E8C-97E1-4C92592C18F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DF90394-0FF3-4D0E-8363-B60285734805}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16095" yWindow="-8010" windowWidth="15285" windowHeight="9870" tabRatio="761" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1500" yWindow="1500" windowWidth="12672" windowHeight="9864" tabRatio="761" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="8" r:id="rId1"/>
@@ -25,11 +25,12 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="1">T_EMPLOYEE!$1:$6</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="131">
   <si>
     <t>システム名</t>
   </si>
@@ -687,6 +688,10 @@
   </si>
   <si>
     <t>コメント</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>AUTO_INCREMENT</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -1733,7 +1738,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{221F086F-26AC-4114-B742-94502A035963}">
   <dimension ref="B3:E11"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1859,8 +1864,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -1998,11 +2003,9 @@
         <v>26</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="D7" s="12">
-        <v>10</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="D7" s="12"/>
       <c r="E7" s="13"/>
       <c r="F7" s="23" t="s">
         <v>11</v>
@@ -2014,7 +2017,9 @@
       <c r="I7" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="J7" s="14"/>
+      <c r="J7" s="14" t="s">
+        <v>130</v>
+      </c>
       <c r="O7" s="1" t="s">
         <v>30</v>
       </c>
@@ -2395,7 +2400,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2EE93C6-8427-49C5-BF42-CDDECB2528F1}">
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>

--- a/03-製造/チーム2/【勤怠】テーブル定義書.xlsx
+++ b/03-製造/チーム2/【勤怠】テーブル定義書.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DF90394-0FF3-4D0E-8363-B60285734805}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6CD8D65-681C-4C9E-B438-CD55856A48F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1500" yWindow="1500" windowWidth="12672" windowHeight="9864" tabRatio="761" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-16425" yWindow="-1245" windowWidth="14880" windowHeight="9900" tabRatio="761" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="8" r:id="rId1"/>
@@ -25,12 +25,11 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="1">T_EMPLOYEE!$1:$6</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="131">
   <si>
     <t>システム名</t>
   </si>
@@ -1185,7 +1184,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1326,6 +1325,13 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="ハイパーリンク" xfId="2" builtinId="8"/>
@@ -1738,7 +1744,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{221F086F-26AC-4114-B742-94502A035963}">
   <dimension ref="B3:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2400,8 +2406,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2EE93C6-8427-49C5-BF42-CDDECB2528F1}">
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7:I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -2921,7 +2927,7 @@
   <dimension ref="A1:O20"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="A15" sqref="A15:I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -3242,15 +3248,29 @@
       <c r="J14" s="17"/>
     </row>
     <row r="15" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="15"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
+      <c r="A15" s="72">
+        <v>9</v>
+      </c>
+      <c r="B15" s="68" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="68" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="68">
+        <v>10</v>
+      </c>
+      <c r="E15" s="69"/>
+      <c r="F15" s="70" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" s="71">
+        <v>1</v>
+      </c>
+      <c r="H15" s="68"/>
+      <c r="I15" s="68" t="s">
+        <v>40</v>
+      </c>
       <c r="J15" s="17"/>
     </row>
     <row r="16" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -3706,10 +3726,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB74DD2A-97C4-43BD-933B-830F65CBE11A}">
-  <dimension ref="A1:O19"/>
+  <dimension ref="A1:O21"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -4121,16 +4141,50 @@
       <c r="J18" s="17"/>
     </row>
     <row r="19" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="18"/>
-      <c r="B19" s="18"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="18"/>
-      <c r="J19" s="20"/>
+      <c r="A19" s="61">
+        <v>13</v>
+      </c>
+      <c r="B19" s="68" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="68" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="68">
+        <v>10</v>
+      </c>
+      <c r="E19" s="69"/>
+      <c r="F19" s="70"/>
+      <c r="G19" s="71"/>
+      <c r="H19" s="68"/>
+      <c r="I19" s="68" t="s">
+        <v>40</v>
+      </c>
+      <c r="J19" s="17"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A20" s="61"/>
+      <c r="B20" s="61"/>
+      <c r="C20" s="61"/>
+      <c r="D20" s="61"/>
+      <c r="E20" s="63"/>
+      <c r="F20" s="64"/>
+      <c r="G20" s="65"/>
+      <c r="H20" s="61"/>
+      <c r="I20" s="61"/>
+      <c r="J20" s="17"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A21" s="18"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="20"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
